--- a/outputs/c__Bacteroidia.xlsx
+++ b/outputs/c__Bacteroidia.xlsx
@@ -18,6 +18,8 @@
     <sheet name="f__Lachnospiraceae-t-p" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="g__Ruminococcus_E-t-p" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="glv-t" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="f__Atopobiaceae-t" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="f__Bacteroidaceae-t" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30622,6 +30624,5130 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>o__Chitinophagales</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>o__Cytophagales</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>o__Sphingobacteriales</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG440</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.898298054022878</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.660019256419178</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-2.937918426173288</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.05965346454885312</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-3.406621716655756</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>hRUG890</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.796772363068864</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.5708488532988</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-2.920079258751752</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.48717941951122</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-4.613974826243881</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG836</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.04167301859115718</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.41242001214769</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-2.022945019903899</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1062343178430729</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5.222294473693861</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG025</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3575375448456081</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.745882073942638</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-2.515420090220594</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.3352670619200886</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-6.793505176397933</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG729</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.582880845331464</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.790633960095783</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.3251064960614474</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6915320348732418</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-8.712394521128893</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG768</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.103010794190768</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-4.376826161978814</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-6.223173878763522</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.12128934201113</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-10.4444659206287</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG721</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.836329075891173</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-3.63003661872896</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-3.840784384053873</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3905871446750223</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-5.65518920886668</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG161</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.243703983654803</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.908767156508458</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-3.613954320971717</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1.316259416218321</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-4.056311006799236</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG077</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.420406296993714</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.669754057792131</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-3.002704245655116</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1.668531527060627</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-7.489733294373542</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG725</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-1.014937225515864</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.835885826195603</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1.288451963478332</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9316527672577055</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-7.309998911078607</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG162</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.026318668831271</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-2.229519529861465</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-3.209810096554662</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1.185277529187958</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-5.706954989063952</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG654</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.08950507799260199</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-2.431619905453422</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-2.685250003369055</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.165001468256275</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-7.144770655128409</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG002</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2.239540259913912</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.7180236546146</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-5.189103996203986</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.3405978080173062</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-6.60820540254801</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG778</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2155528965023898</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.456928814718162</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-1.714231190974179</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.03774036704607098</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-3.467536639900639</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG032</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9885697518157633</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-2.835471873690321</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-3.662780971468525</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.671862202215447</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-6.644514133133925</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG001</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2.632356456152857</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-3.807163986321809</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-5.242913187588957</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.163486739481136</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-5.91019507481036</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>hRUG864</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.207606892285576</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.630591762051155</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-3.242856409824302</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.3456562377031804</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-3.926912673245347</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG078</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9925057500721787</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-2.756090324116467</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-3.258818580889309</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.5062228351570326</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-6.872643858923609</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG004</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.8436678779583379</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-2.39674406122045</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-1.801971856955255</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6020432013762916</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-5.527906535923104</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG014</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2.75481026386614</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.265134081028034</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-4.20571374261233</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-1.411373096841824</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-7.451783167262812</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG804</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6414427092130073</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.400588617804552</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-3.411685529980964</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.7916771861371978</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-7.721120385305825</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>hRUG891</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2.680433303756853</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.722121027774812</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-3.634105307381069</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.01323672077569538</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-5.785295519835441</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G165"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>o__Chitinophagales</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>o__Cytophagales</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>o__Sphingobacteriales</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG515</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.625236092028435</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.241343502001904</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-3.538159315428819</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-2.664304670121724</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-3.393118922292357</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG212</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4.750862853203835</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.881218765285005</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-4.181299448508437</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-2.442850205345612</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-5.735197334052438</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG062</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.260113193819131</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.334074288969003</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-4.947588529966837</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1.62997812371911</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5.259815162415379</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG419</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.477432733890428</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.107055125128805</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-4.304300833983138</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-2.465766425698437</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-4.45556663812888</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>hRUG908</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3.464945680479242</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.707894740319769</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-3.66480089230716</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1.904894814447487</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-3.132097027201938</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG459</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.621235141955632</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.178148563566566</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-4.306189154333248</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-2.741835610097858</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-3.369527937628772</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG577</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.816107947616349</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.746560179727199</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-4.040609968020889</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-2.661214221058652</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-2.633085722161555</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG112</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.495741445505348</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.745696872718871</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-4.022775748700854</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1.887810525023954</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-3.910548423088546</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG431</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.464155397127598</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-3.267709985517834</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-4.022503600430271</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-2.981610496396734</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-3.177519621837567</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG446</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.448027837384555</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-2.929114822805215</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-4.276286989169909</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1.980128862514784</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-6.237983490153809</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG318</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3.830564046699572</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-2.251644509327898</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-4.565058559680032</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-2.533359721049392</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-4.143747195988047</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG483</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.795861089919954</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1.554511583952313</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-5.003412036803955</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1.373670160136499</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-5.692912810640874</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG838</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2.505066955152973</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-3.136180184193077</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-2.385112679377686</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-1.736934447443691</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-2.201155349865608</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>hRUG906</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.060665396894001</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-3.231068242412196</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-5.628566267795702</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-2.219107412764025</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-6.4631657183646</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG339</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2.480374061275804</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-2.129265088788728</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-3.859038142636308</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-1.537258775187397</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-4.246676050983321</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG500</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3.72259076827752</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-1.54883934072876</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-4.521271468902895</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-2.734000378229443</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-3.763762435297561</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG273</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.607906089251904</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-2.198057665405931</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-4.769116958721835</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-2.155450959708004</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-3.40638209300923</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG307</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3.376203699850443</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.821648855134449</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-4.751069992291089</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1.778493338005156</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-3.494705397050942</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG397</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3.920780305835762</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-2.086256922325415</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-4.285327830667726</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-2.056279802506352</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-4.058819435087456</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG569</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2.030080642888576</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.185843191394912</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-3.963900739025417</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-2.037884138983097</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-3.245672362762466</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG474</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3.310947618764007</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.568902320664891</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-4.058812396671955</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-2.144097351890458</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-6.513050705129523</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>hRUG897</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3.05522060864275</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.368143871731102</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-4.051798257906128</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1.719121688429158</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-3.667894291032371</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG116</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2.974244026141025</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.7140822044345</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-3.325337468235438</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-2.438720771229149</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-3.132991811093699</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG367</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>3.252283928417075</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.944140732280042</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-4.976757534720703</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-1.159473066860099</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-4.479091111735297</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG144</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2.822235546117714</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.367976033525451</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-3.483376222889662</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-1.804352815004886</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-4.982793764932501</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG423</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2.902378951499093</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.123568340358078</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-4.338244408341025</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-2.110444348924092</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-3.532974557194887</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG476</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3.17986930423721</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-4.119081997814332</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-1.846552387574408</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-2.102554412398947</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-3.981121976885718</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>hRUG858</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3.779353731783537</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.859288893498869</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-4.749273821885734</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-1.250033646569632</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-3.968497915418763</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG168</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>4.092129861763156</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-2.404222967128909</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-3.607008541333065</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-2.531515782781712</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-4.00689446384132</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG242</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3.377038560118139</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.110318868654882</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-3.566089745901371</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-2.841640462537243</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-4.892769710612368</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG586</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3.592709565486282</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-1.810470366982768</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-3.253681938457568</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-3.293594439477657</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-3.458759888937135</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG106</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2.702487554379949</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-2.130706077924891</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-3.957455819838696</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-1.99712831948409</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-4.701488262152113</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG765</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3.607629128285795</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-2.552847839709626</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-2.971506888731672</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-2.608064198486629</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-2.645752979272341</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG259</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>3.2540911990243</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-2.107960483161387</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-3.755622068424444</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-2.664599325815835</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-3.272314852823671</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG488</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>4.200815976656028</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-2.862770025089468</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-3.829188577904769</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-2.964813506312813</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-2.554036648047052</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG085</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2.74848006373672</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-1.617559378472851</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-4.069663005278082</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-1.925587562455052</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-2.226177386772622</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG647</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>4.87602341285842</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-3.112641992809733</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-3.56821509242085</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-2.868437835826394</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-4.214426148777379</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RUG733</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2.875395530580224</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-1.819607714481585</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-3.808029551848791</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-2.330943823890643</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-4.93571649053491</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG064</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2.219948238947903</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-1.574151503112047</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-3.575726414772438</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-1.764835269427977</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-2.485599327080313</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG598</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2.515940320337408</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-2.327210027267133</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-4.072299686075331</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.5784091641305609</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-4.822076930789364</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>RUG022</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>3.679213486443489</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-1.9993741430517</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-3.999754736374679</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-2.18530944604215</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-2.823731763225776</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RUG849</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2.070276028468062</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-1.408765478042176</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-3.472252302993395</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-1.590561691572607</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-4.74389516119272</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RUG216</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>4.068992735813045</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-3.186044802374314</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-3.314075567587875</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-2.844441356211812</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-6.272261747421533</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>hRUG893</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2.546262377288787</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-1.563184355620304</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-3.474565600804852</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-1.655339429579671</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-2.797093601547401</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG200</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>4.107413511807848</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-2.34959903032065</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-5.547642444649846</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-2.182212341363261</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-5.054760126094771</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG309</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>4.646326332411165</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-2.965046282049132</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-3.956875225750328</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-3.030339878708066</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-3.563128297943225</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG550</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>3.264338946931157</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-2.315211149787279</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-3.337134243365382</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-2.203056749569329</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-1.595283825880118</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG782</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>3.826655983382558</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-2.714381129356123</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-4.278460695700737</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-2.337844171402149</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-2.224247474759638</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG003</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>4.408159727704324</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-2.59862567027964</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-4.828015789858132</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-2.063467070062883</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-3.901451526275737</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RUG535</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>3.606598279724378</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-1.487707128037541</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-3.440705744133508</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-3.211467803424601</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-2.810700277806792</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG315</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>3.492254244856118</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-1.338329095808344</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-4.351673897049043</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-2.252482246100645</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-3.912548073729966</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG108</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3.247502315057231</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-2.260975179351824</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-3.874031195736189</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-1.772571094293694</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-3.971472796633578</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RUG541</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2.523689494944454</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-1.948994567247924</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-3.878923358769424</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-1.747800881311125</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-3.503671421709753</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RUG461</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>3.561019244966553</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-2.044525370081467</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-3.59401433689558</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-2.91202290699622</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-2.121001932207379</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RUG546</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>3.989321245249403</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-2.105623591979803</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-5.306829623233141</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-1.98630425138687</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-3.999414754628348</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RUG195</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2.306140772008592</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-2.183394790722233</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-3.409433631780471</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-1.391489981286145</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-3.527268588914581</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RUG660</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>3.944691658992932</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-2.616694911540506</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-3.471986799697885</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-2.884303110418931</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-2.280616611584342</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>RUG280</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>4.919178719042111</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-2.781206416045268</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-4.923386887004622</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-2.012399364738792</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-4.972943053929431</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>RUG614</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1.800866851242444</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-2.269680632722474</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-2.86694912611897</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-1.712200895950629</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-3.426876516764032</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>RUG742</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>3.530561209096257</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-1.517416831481621</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-3.504820858804315</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-3.017922007270009</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-4.126736444416468</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>RUG457</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>3.279575294834595</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-2.724561975357823</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-3.47076653410463</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-2.566565109645009</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-1.881699602971191</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>RUG036</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2.483671556184575</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-1.442187919021076</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-3.059311202612588</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-1.954294901121579</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-4.228374834825714</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>RUG046</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>3.368121666603369</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-1.83780580952229</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-3.297157900583866</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-2.342354231730784</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-2.291844843299359</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>RUG445</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>3.129675961630338</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-2.167572376436411</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-3.934169489759499</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-2.593945784579974</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-3.472232044974658</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>RUG435</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>3.911289404495568</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-2.198809750628742</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-4.133277280497863</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-2.948342268725666</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-2.137244577628439</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>RUG828</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2.12055805685345</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-1.4525290496779</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-3.604113735333273</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-1.23092770201258</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-2.369974819306752</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>RUG172</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>4.672187667567378</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-1.747819206400225</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-5.94998144460998</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-2.371940307030243</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-4.513911611253514</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>RUG589</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>4.021703644340861</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-2.061085846783252</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-4.919830802978523</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-1.865470199079974</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-4.357060074446633</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>RUG169</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>3.387022282691991</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-1.399561758989142</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-4.362947031289923</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-1.896543168863397</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-6.848193111458817</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>RUG030</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>4.026624754756069</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-3.41822950514227</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-3.89826371430828</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-1.673873540358373</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-4.766484009299439</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>RUG301</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2.2669728447585</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-2.45136903989341</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-2.659551253216597</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-1.401891105949963</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-3.327401930604166</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>hRUG878</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>3.255441705881406</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-2.264954758799668</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-4.856315743062424</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-1.893066958979396</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-5.148858404608058</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>RUG037</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>3.44237454012684</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-1.601740559631294</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-3.579836913873855</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-2.977081912684095</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-2.821900341716227</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>RUG711</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>3.584499428950637</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-1.986351933181364</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-3.468428529393963</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-3.150905495666697</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-2.542189993647465</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>RUG788</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2.036164735661329</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-2.565192039088959</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-2.997251883648372</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-2.098076588778438</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-3.142876429781673</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>RUG210</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.6180183559788988</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-1.622621641071004</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-2.577017204947536</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-0.7397203737103764</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-2.79934887426933</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>RUG176</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>3.823436723130764</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-2.475073510702066</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-4.740893844966789</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-1.56926793729994</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-4.255382614874143</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>RUG047</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2.571133932380187</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-2.489394127982527</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-3.506348787752864</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-1.539957672628739</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-3.440231375042847</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>RUG310</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.3454245150954151</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-1.522833535379009</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-2.153187617645397</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-1.688097584937212</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-3.827491591124195</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>RUG405</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>3.856819808407181</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-1.826610618919863</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-4.142056006317163</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-2.635953066285522</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-2.639480876666649</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>hRUG883</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>3.543927617706781</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-2.403034547267267</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-3.99842735798889</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-1.66588933525722</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-3.352770834644842</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>hRUG905</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>3.186540260990423</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-1.918622871368775</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-4.315062681147809</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-1.421105109079156</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-5.248317288530365</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>RUG192</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>3.803388823319235</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-1.044823256737459</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-4.987239875504405</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-1.87374671979346</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-4.934759763665065</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>RUG697</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>4.442209694137455</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-2.527831294682901</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-3.937465049646436</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-2.791032543383665</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-7.090655133290896</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>RUG562</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>4.400559658598098</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-2.235057541249136</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-3.713317753482598</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-3.151479113828172</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-7.154890767498292</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>RUG292</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>3.500793839909763</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-2.053794707070967</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-2.895769296913365</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-3.079244813615551</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-6.974394716554433</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>RUG376</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>3.356061272362106</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-2.186093952606291</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-3.70153848005346</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-1.806758168229672</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-3.552281571168511</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>RUG070</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>3.195969031700676</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-2.255073142901499</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-3.609203373925177</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-1.564061122168803</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-4.621951406831328</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>RUG473</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2.990110566758057</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-2.748760499026095</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-3.346942801557169</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-2.609272455653373</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-4.141669163174274</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>RUG302</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>4.113533583122036</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-1.914645544989725</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-4.548459089468832</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-2.161145539786765</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-3.864822755102352</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>RUG233</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>3.669091259353962</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-1.353578154004325</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-4.723431526186238</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-2.361713819236175</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-6.543858753948212</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>RUG232</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>4.342252346167251</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-2.683928002705274</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-3.283913286926424</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-3.100440577624628</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-4.150074545002338</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>RUG207</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.9171304276741158</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-2.291299645748203</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-1.384563642471879</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-1.678616760622023</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-1.515075491706398</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>RUG143</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1.349661518765525</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-1.874245133485497</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-2.26136187967325</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-1.715898383554336</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-1.917390718587608</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>RUG219</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>3.453081365207085</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-0.7930540330057179</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-3.818708792965591</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-2.81853939991388</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-2.650320405111058</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>RUG139</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>3.030118207085202</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-2.157201026751364</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-4.091649666122949</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-1.847733715685483</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-3.654936425217257</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>RUG086</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>3.248431568320655</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-2.664872647256823</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-3.89983934612435</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-2.264608347478076</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-3.596444556362485</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>RUG582</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>4.413861289013528</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-1.811392119669459</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-4.415814906164616</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-3.080755161369789</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-6.782387977700532</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>RUG418</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>3.122337946673265</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-2.247796357343348</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-3.507898113340827</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-1.990558995195046</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-3.943185918495344</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>RUG685</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>4.221510809105068</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-2.501194506287824</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-4.08437570250564</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-2.997210398823389</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-3.047604665186258</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>RUG759</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>4.352973175950913</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-2.965793703130057</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-4.39938850878284</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-2.329281071586759</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-4.3057428431567</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>RUG691</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>2.066617004486212</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-1.706633924506645</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-3.547633089199945</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-1.911833422573592</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-2.6595180429795</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>RUG383</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>2.642174692243324</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-1.929388195464568</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-2.490320585480087</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-2.627810120947451</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-4.098461844426952</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>RUG056</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>5.079676886069533</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-2.9032500678722</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-5.457886783885477</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-2.749407961314339</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-6.274443061621031</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>RUG124</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>4.408176654279294</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-2.086134005185576</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-4.863922496303468</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-1.956203320568463</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-4.461475371174899</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>RUG160</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>3.187797695088942</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-2.161529781988485</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-2.940176408753389</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-2.281051932791201</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-3.949041636982074</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>RUG624</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>3.282232935038321</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-1.162223909502483</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-4.889874521862674</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-2.305133580704215</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-4.614676785952335</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>RUG209</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>4.295739460824264</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-1.977063996514382</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-2.693679177837232</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-4.399076961777389</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-3.848365101013075</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>RUG812</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>3.375543431817579</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-1.769611696078495</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-3.70990470712804</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-2.006668489076727</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-6.407538277738118</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>RUG602</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>4.914962535704744</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-2.345243495456448</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-4.109980759214229</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-3.134976792289128</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-4.731040880246642</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>RUG751</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1.841491857348349</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-1.476087873927583</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-3.314010771041763</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-1.527553442515585</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-2.574898808851239</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>RUG101</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>3.895046911829231</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-2.610869108165154</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-4.660986499100806</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-1.357827944137484</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-4.062486480307601</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>RUG693</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>3.247040027191071</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-2.279341618626948</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-3.568184911006995</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-1.897858933715769</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-2.43460662363951</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>RUG749</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>2.832049706988864</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-1.664358538259147</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-4.003559191810755</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-2.031010864215566</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-3.180357602287899</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>RUG107</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>2.110295814626954</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-1.974954334451829</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-3.564825998383661</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-1.522808923807928</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-5.345805636340653</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>RUG063</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>2.412892464291984</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-2.643945276944716</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-3.236264511423096</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-2.320418276236199</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-3.114246888956631</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>RUG178</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>3.428662691783174</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-1.758640286429385</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-4.097778973930376</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-2.516813546137306</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-5.661492809348676</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>RUG414</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>3.484081975543625</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-2.709582062318816</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-3.125031302823412</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-2.653739140526907</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-4.524570800776255</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>RUG058</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>5.119410568494912</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-2.561515377777402</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-5.314567921938679</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-2.312509259763599</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-5.41546548306797</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>RUG771</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>2.666343833758207</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-2.183952379838987</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-3.620817476386188</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-2.174750367052364</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-2.660961490618234</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>RUG837</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>3.784817101360132</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-2.17407881939366</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-4.085615420475436</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-2.292157170520649</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-2.800956870923113</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>RUG657</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>2.836860140465025</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-3.526152026992039</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-2.092439800045012</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-1.639786113691673</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-3.848193418168886</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>RUG174</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1.268241688907258</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-1.844193744947521</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-2.223380195819184</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-1.11982571399263</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-2.210774220492628</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>RUG355</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>3.573253008771764</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-1.601617867846681</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-4.022616363559854</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-2.912114985271531</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-4.253676434086073</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>RUG827</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>4.53533649636364</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-3.228100774211425</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-5.065792251437519</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-2.607439746863756</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-7.379316609045347</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>RUG795</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>2.076563389664654</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-1.890789810367294</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-2.92879188754624</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-1.949369394461669</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-3.307211689837088</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>RUG843</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>4.140549051717033</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-2.113015010708829</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-4.452186209534164</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-2.341747338157075</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-6.22331806581843</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>RUG689</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1.772390083625447</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-1.729246459073891</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-3.361625610965098</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-0.9755082438470031</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-4.076602076222398</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>RUG126</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>3.434287783431464</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-2.478232844560393</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-3.433848123725943</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-2.236518724244289</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-2.686425955735316</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>RUG451</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>4.846003959405857</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-2.807331498892001</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-3.975963525716223</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-2.591653368497292</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-5.699064917132832</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>RUG536</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1.150965655923018</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-1.976857031335395</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-2.378131736782211</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-1.504275780014641</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-2.232210414940422</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>RUG606</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>2.046365215396839</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-1.039800245454126</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-3.367761093549297</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-2.015494095758709</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-3.16261556218866</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>RUG766</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>3.315668402892944</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-2.409991846379295</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-3.634260136448767</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-1.812381435463841</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-3.519505980520752</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>RUG059</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>3.465826311988084</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-1.786633246521095</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-4.392495628908443</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-1.714813694745408</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-5.126939315301208</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>RUG753</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2.8445592411641</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-2.10418536570654</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-3.309621418153275</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-1.39138632304353</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-4.27009196901178</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>RUG744</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>3.832631611995774</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-2.621295561730065</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-3.478723053568042</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-3.135268912181044</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-2.441251783202824</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>RUG450</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>3.184418896944603</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-3.816490218789285</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-2.099891484642593</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-1.67179882198042</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-4.162159851714045</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>RUG071</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>2.96865734568032</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-1.451893379730441</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-3.669898231456356</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-1.479648819306051</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-4.459060997457108</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>RUG295</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>2.420858707662252</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-2.136255456592529</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-3.05829197331003</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-1.737075548271955</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-3.319200637617129</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>RUG620</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>3.187510360700745</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-0.6576147183305168</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-3.969553886629519</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-3.176858856115874</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-3.255229446162194</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>RUG785</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>4.149845761112894</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-1.8104605480096</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-4.949543913936267</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-2.767484903697237</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-3.384028567578502</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>hRUG879</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1.922069202666075</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-2.073286876288194</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-1.985134893271516</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-2.206433780524333</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-0.6218356959682405</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>RUG249</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>4.120381037149343</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-2.889035059842967</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-4.176540053545098</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-2.539972036038031</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-4.064689532190553</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>RUG668</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>3.970519776512353</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-2.535294916263825</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-5.20010106881755</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-1.369910322437133</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-4.048220061713368</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>RUG430</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>5.161067067100539</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-2.44082425951258</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-4.47886138778961</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-2.818309324104825</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-4.476652708635186</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>RUG424</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>3.706603310969149</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-2.16300018379849</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-4.202682762259121</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-2.559474027881687</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-3.971111242455885</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>RUG224</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>3.633041228583364</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-1.613450650344064</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-4.364478363901556</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-2.646524506420081</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-2.925505552881734</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>RUG443</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>2.058898990621092</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-1.531487685366339</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-3.1442908866516</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-2.395199957553376</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-3.391348887645313</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>RUG136</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>4.200198942607485</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-2.350021341151854</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-3.772184736153968</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-2.481461963650502</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-3.275884317343277</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>RUG599</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>3.024626189860965</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-1.333214690281045</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-4.37302694564247</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-2.319252076369063</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-3.117171029684976</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>hRUG913</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>2.555230639442779</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-1.904771225771608</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-3.68873823263514</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-1.874710810330777</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-1.97305375889293</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>RUG204</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>3.511988121551585</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-1.832122063647594</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-3.681524905528712</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-2.591097261362362</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-3.047485284551332</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>RUG786</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>2.927670099933239</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-1.669827618438217</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-2.764418675985134</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-2.7633284569179</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-4.299952611892699</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>RUG533</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>2.962679251050361</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-2.296903860473973</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-3.813221264635112</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-2.128053479533959</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-2.126235977639851</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>RUG413</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>3.81798310543292</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-2.328335417553862</v>
+      </c>
+      <c r="D156" t="n">
+        <v>-2.967016747554586</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-3.295345175498303</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-8.175151691161576</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>RUG839</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>3.069742114673051</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-2.506338003658566</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-3.535129405715287</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-1.997847639537577</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-4.043556674183867</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>RUG403</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>2.68591562543707</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-2.010717224266066</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-3.911410055729406</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-1.591923073812442</v>
+      </c>
+      <c r="F158" t="n">
+        <v>-3.529162921694854</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>RUG137</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>2.890966134754098</v>
+      </c>
+      <c r="C159" t="n">
+        <v>-1.892282762235021</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-4.625092709695695</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-1.6484385231405</v>
+      </c>
+      <c r="F159" t="n">
+        <v>-6.448676436294924</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>RUG504</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>2.461641811777571</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-2.000205112660518</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-2.277466368275632</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-2.024019295056614</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-2.46182062411855</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>RUG571</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>2.990799671340666</v>
+      </c>
+      <c r="C161" t="n">
+        <v>-2.698907388330332</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-3.816353325461243</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-2.198442730836014</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-3.967340763726975</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>RUG317</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>4.319235402884993</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-2.045416952840683</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-4.50060910190235</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-2.530010019763393</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-3.966924406640492</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>RUG815</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1.315740652771793</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-1.856516656030335</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-3.134279813861927</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-0.6545571743843956</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-5.445344639285965</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>RUG069</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>2.972819918155224</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-1.853237799385562</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-3.054120636919387</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-2.478297844551596</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-5.831299711400057</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>RUG073</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>3.320128267845248</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-2.946422664061282</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-3.383476677980342</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-2.43339289136018</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-5.307902126874841</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/outputs/c__Bacteroidia.xlsx
+++ b/outputs/c__Bacteroidia.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="g__Prevotella-t" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="glv-t" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="f__Atopobiaceae-t" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="f__Bacteroidaceae-t" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="f__Bacteroidaceae-t-p" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -66,18 +67,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -3908,7 +3909,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -5999,7 +6000,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -30620,7 +30621,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -31265,7 +31266,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -35744,7 +35745,5808 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I165"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>o__Chitinophagales</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>o__Cytophagales</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>o__Sphingobacteriales</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG515</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9936822923936767</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00281465004571143</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0007695280475957084</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.001843888704907786</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0008896408081085349</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9936822923936767</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG212</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9986060055228291</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0004839753484592492</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0001318880279193429</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0007502470350951243</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.788406569736026e-05</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9986060055228291</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG062</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9884234306133252</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.003676362074974511</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0002693912367360874</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.007433671350261975</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0001971447247024377</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9884234306133252</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG419</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9928955418961877</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.003728990691796904</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0004143235437105691</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.002604983404255845</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0003561604640491545</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9928955418961877</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>hRUG908</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9876654040822112</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.005598527180989121</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0007910432838989273</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.004597457740575521</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.00134756771232529</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9876654040822112</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG459</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9940016534205751</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.00301124966751896</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0003585506211600318</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.001713722864882917</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0009148234258628038</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9940016534205751</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG577</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9927081771817775</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00381053124397356</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.000384319448627714</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.001526709204380154</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.001570262921241041</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9927081771817775</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG112</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9890859507181124</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.005234874738374382</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0005370113978414233</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.00454137243127848</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0006007907143932888</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9890859507181124</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG431</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9982941562501401</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0004378769237831447</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0002058492819619618</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0005829126601603002</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0004792048839545332</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9982941562501401</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG446</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9934479599755039</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001688835131425579</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0004390538771552292</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.004362411410278611</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6.173960563651519e-05</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9934479599755039</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG318</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9954450735509384</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.002272729179885797</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0002248250670087983</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.001714748083082802</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0003426241190842534</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9954450735509384</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG483</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9718387309150038</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01253866665408667</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0003984858654662507</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.01502414578573397</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0001999707797091409</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9718387309150038</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG838</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9666634917878159</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.003430147638677019</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.007269378564188558</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.01389944679393227</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.008737535215386207</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9666634917878159</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>hRUG906</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9990283426500753</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0002503361936200682</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.276687807096925e-05</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0006886723534101268</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9.881924823634799e-06</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9990283426500753</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG339</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9700127122993386</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.009656874322934413</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.001712401845409991</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.01745587626045573</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.001162135271861155</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9700127122993386</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG500</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9925263265395728</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.005097873177255177</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0002609024491709197</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.001558404265778522</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0005564935682225761</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9925263265395728</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG273</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9927734598621704</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.002987804229641785</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0002284311225674109</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.003117855581715825</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0008924492039045409</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9927734598621704</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG307</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.987524057500767</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.005459451372710723</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0002916873312982637</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.005700214585147638</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.001024589210076459</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.987524057500767</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG397</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9944183308358501</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.002447631313144513</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0002714573716561224</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.002522115076966885</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0003404654023823768</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9944183308358501</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG569</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9391097623886837</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.03767544405649816</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.002341872875334205</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.01607021539743101</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.004802705282052997</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9391097623886837</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG474</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9875987279890058</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.007503927349290633</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0006222063144728321</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.004221673016261722</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5.346533096906082e-05</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9875987279890058</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>hRUG897</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9780337849122679</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.01173035274164082</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0008013362339925592</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.008258160948356798</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.001176365163741905</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9780337849122679</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG116</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9825844294269305</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.009041816032095246</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.001805079759566143</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.004380756717157029</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.002187918064250915</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9825844294269305</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG367</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9819557808719256</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.005436424680672909</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0002619778854509707</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.01191489481306576</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0004309217488847775</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9819557808719256</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG144</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9827115180436828</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.005474516856772114</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.001794459454628795</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.009618874336477037</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0004006313084393253</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9827115180436828</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG423</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9846995740437967</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.006464911362859192</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0007058964199805164</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.00655031600325964</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.001579302170103749</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9846995740437967</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG476</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9870743738676733</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0006675066594894347</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.006477429167574186</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.005014439615127554</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0007662506901356547</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.9870743738676733</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>hRUG858</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9915903074672312</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.001297795946958998</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0001960633361760913</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.006487794530286972</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0004280387193467101</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.9915903074672312</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG168</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9964183105833281</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.001503527976817343</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0004515942211688137</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.001323820024891758</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.000302747193793957</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.9964183105833281</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG242</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9857426240667219</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01108993412598036</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0009514834215856124</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.001963475795061078</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0002524825906510129</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.9857426240667219</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG586</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.9926017961133757</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.00446893283248516</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.001055419236657842</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.001014124387426472</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0008597274300547857</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.9926017961133757</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG106</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9814025456901941</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.007813000564648825</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.001257391508057569</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.008929557519080993</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0005975047180186087</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.9814025456901941</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG765</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9926326193469087</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.002095691681562517</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.001378815239222911</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.001983111941195134</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.001909761791110843</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.9926326193469087</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG259</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.9903467767424293</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.004645985340959203</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.000894349978023161</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.002662763881355645</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.001450124057232691</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.9903467767424293</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG488</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.9968905441457262</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0008530432554216599</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0003245344530210987</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0007702897746276779</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.001161588371203506</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9968905441457262</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG085</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9708357957455993</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.01233101832998324</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.001061851706046005</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.009061998850541811</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.006709335367829508</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.9708357957455993</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG647</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.9989009140588047</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0003389136861780838</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0002148999051555099</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.000432658883195074</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0001126134666666779</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.9989009140588047</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RUG733</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.9839815356400367</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.00899441552225674</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.001231437332130049</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.00539389510441078</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0003987164011658164</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.9839815356400367</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG064</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.9495005622242454</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.02136675865165396</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.002887125783491571</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.01765735859404403</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.008588194746564928</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.9495005622242454</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG598</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9476755568504573</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.007469752428276982</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.001304437870833225</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.04293394275908094</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0006163100913514702</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.9476755568504573</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>RUG022</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.9918487593827925</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.003390518996092555</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.0004586822440312849</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.002815240527491838</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.001486798849591608</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.9918487593827925</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RUG849</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.942007535118386</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.02904864292609811</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.003689477843256621</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.02421992287014887</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.001034421242110533</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.942007535118386</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RUG216</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.9976506251929819</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.0007049457721084663</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.0006202298379064179</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0009920012099792438</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3.21979870239332e-05</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.9976506251929819</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>hRUG893</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.9628383928832379</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.01580677820706475</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.002337443015063603</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0144152082036327</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.004602177691001135</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.9628383928832379</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG200</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.9964189036339561</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.001563857011407715</v>
+      </c>
+      <c r="D46" t="n">
+        <v>6.387110560514003e-05</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.001848809469562751</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.000104558779468261</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.9964189036339561</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG309</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.9985881000812656</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0004940936360644399</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.0001832582027188195</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0004628631551907924</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0002716849247603633</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.9985881000812656</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG550</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9831795184756926</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.003710778266004657</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.001335517071374286</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.004151194109325063</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.00762299207760346</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.9831795184756926</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG782</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.9938347628737075</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.001434094795392193</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.0003001281524281179</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.002089805090554217</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.002341209087917977</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.9938347628737075</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG003</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.9972117836704806</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.0009031900978208174</v>
+      </c>
+      <c r="D50" t="n">
+        <v>9.717786213921025e-05</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.001542394949721216</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0002454534198381751</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.9972117836704806</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RUG535</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.9903655154119768</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.006072489633152585</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.0008613710272805148</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.001083295733276229</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.001617328194313843</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.9903655154119768</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG315</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.9879647210864267</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.007885799805296438</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.0003874063440415216</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.003161069749870974</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0006010030143644003</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.9879647210864267</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG108</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.9879505652023265</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.004003444705385596</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.0007977971997214559</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.006524466920899244</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0007237259716671823</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.9879505652023265</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RUG541</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.9713956385424486</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.01109006627935174</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.001609817770104648</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.01356161619427464</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.002342861213820377</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.9713956385424486</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RUG461</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.9906781873714723</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.003643137027726524</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.000773643709114325</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.001530122189117097</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.003374909702569682</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.9906781873714723</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RUG546</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.9948019738339147</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.002242516917256789</v>
+      </c>
+      <c r="D56" t="n">
+        <v>9.129975522296967e-05</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.00252671034921062</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0003374991443949071</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.9948019738339147</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RUG195</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.959480778278433</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.01077099334446237</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.003160776984031015</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.02377801772544707</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.002809433667626348</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.959480778278433</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RUG660</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.994949907566093</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.001406783399274794</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.0005981067274531249</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.001076481252380147</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.001968721054798844</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.994949907566093</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>RUG280</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.998469522089512</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0004519600416922692</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5.305946690460216e-05</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0009749642697296426</v>
+      </c>
+      <c r="F59" t="n">
+        <v>5.049413216130738e-05</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.998469522089512</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>RUG614</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.94194619684417</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.01607717675026798</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.008847475638173475</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.02807502552723153</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.005054125240157078</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.94194619684417</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>RUG742</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9908766450163565</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.006363712991776893</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.0008721516003432809</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.001419219162709712</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0004682712288134042</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.9908766450163565</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>RUG457</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.9878841758339839</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.002438609963169575</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.001156298125461747</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.002856008599376337</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.00566490747800847</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.9878841758339839</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>RUG036</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.9646214175862342</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.01902732750920219</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.003776331184454558</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.01140177737887899</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.001173146341229989</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.9646214175862342</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>RUG046</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.9866291114249311</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.005410636395150921</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.001257360431535353</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.003266824123265526</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.003436067625116977</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.9866291114249311</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>RUG445</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.9896223655653789</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.004953404328712498</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.0008466041660781444</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.003233941510629366</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.001343684429201105</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.9896223655653789</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>RUG435</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.9940834216242084</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.002207193884442322</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.000318942144872076</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.001043092079134743</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.002347350267342413</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.9940834216242084</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>RUG828</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.9280049799903158</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.0260482345057086</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.003029402201899486</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.03251011722993301</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.01040726607214293</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.9280049799903158</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>RUG172</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.9973789023283383</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.001624376201775576</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.430584623042153e-05</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0008702304351834297</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0001021851884722772</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.9973789023283383</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>RUG589</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.9946120431191215</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.002269508444085088</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.000130135157881084</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.002759857122810757</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0002284561561017328</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.9946120431191215</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>RUG169</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.9863082200559156</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.008226699162968637</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.0004248579454961411</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.005004830022263512</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3.539281335614021e-05</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.9863082200559156</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>RUG030</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.995577499943057</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.0005818565791740242</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.0003600308710395163</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.003329508433835158</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0001511041728943423</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.995577499943057</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>RUG301</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.9565663479683416</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.008542111856215227</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.006936699283807956</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.02439763499404092</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.003557205897594191</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.9565663479683416</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>hRUG878</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.9897695305675958</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.003963294619305857</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.0002969221397348497</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.00574864085462388</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0002216118187395829</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.9897695305675958</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>RUG037</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.9892452730402596</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.00637782545937023</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.0008822594086759795</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.001612016450595511</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.001882625641098724</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.9892452730402596</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>RUG711</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.9920201863430713</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.003776856666898003</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.0008579714096542963</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.001178613245387462</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.002166372334988831</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.9920201863430713</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>RUG788</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.9632028289062416</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.009668829298076434</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.006276719003156133</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.01542551084291008</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.00542611194961571</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.9632028289062416</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>RUG210</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.6957025319335909</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.07401606581715627</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.02849950194195046</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.1789637806515667</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.02281811965573561</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.6957025319335909</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>RUG176</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.9931576187028015</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.001826459050647546</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.0001894858008464612</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.004518520968011592</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0003079154776928904</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.9931576187028015</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>RUG047</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.973258016426671</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.006172606295172014</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.002232599279953347</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.01595157576201367</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.002385202236189964</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.973258016426671</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>RUG310</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.7231325198459981</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.1116461445943206</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.05944077057559354</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.09463907038297915</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.01114149460110855</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.7231325198459981</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>RUG405</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.9932843412115053</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.003379022753004981</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.000333584575513324</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.00150417427627022</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.001498877183706161</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.9932843412115053</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>hRUG883</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.9904739111063052</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.002588869675435739</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.0005250974319097328</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.005410635608755578</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.001001486177593765</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.9904739111063052</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>hRUG905</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.9834679135166233</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.005965076499202001</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.0005430695244225265</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.009810366595342745</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.000213573864409394</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.9834679135166233</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>RUG192</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.9885542814724808</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.007752624831957738</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.0001504107874835495</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.003384167746391181</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.0001585151616868108</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.9885542814724808</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>RUG697</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.9981025300911651</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.000937831501327762</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.0002290491345275777</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0007208052919627053</v>
+      </c>
+      <c r="F85" t="n">
+        <v>9.783981016766341e-06</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.9981025300911651</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>RUG562</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.9978578522331235</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.001309956111116865</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.0002987146292547169</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.0005239138906992777</v>
+      </c>
+      <c r="F86" t="n">
+        <v>9.563135805635795e-06</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.9978578522331235</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>RUG292</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.9930950480339901</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.003842940506829429</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.001655765170578893</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.001378212988298791</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2.803330030257467e-05</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.9930950480339901</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>RUG376</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.9886269717823314</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.003873513043060172</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.000851051471142984</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.005660417443223947</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0009880462602415046</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.9886269717823314</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>RUG070</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.9858358384520972</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.004231039356771714</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.001092334820682412</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.008444030098215273</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.0003967572722333846</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.9858358384520972</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>RUG473</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.9906018141270944</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.003188152469051034</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.001752878481413496</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.003665371260375067</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.0007917836620659641</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.9906018141270944</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>RUG302</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.9952139019713447</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.002398344152544039</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.0001722109704034086</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.001874381180724387</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.000341161724983299</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.9952139019713447</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>RUG233</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.9908311210593127</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.006526525335586247</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.0002244777516737484</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.002381520212601699</v>
+      </c>
+      <c r="F92" t="n">
+        <v>3.635564082547027e-05</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.9908311210593127</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>RUG232</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.9978380975187432</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.0008863979172573676</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.0004864726499716134</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.0005844395719577614</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.0002045923420698977</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.9978380975187432</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>RUG207</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.767493795697153</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.03102211453410518</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.076817795496036</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.05724745614795838</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.06741883812474746</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.767493795697153</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>RUG143</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.8683798394020473</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.03456088563730055</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.02346724979718614</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.04049057858898118</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.0331014465744847</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.8683798394020473</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>RUG219</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.9812206646935723</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.01405055609319366</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.0006818178183270108</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.00185368696097579</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.002193274433931453</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.9812206646935723</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>RUG139</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.9849721815679223</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.005503004219680355</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.0007952056850179386</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.007498938490606995</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.001230670036772319</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.9849721815679223</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>RUG086</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.9914849421512519</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.002680221781337762</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.0007795276235889377</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.003999477970020127</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.001055830473801217</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.9914849421512519</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>RUG582</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.9973122997491327</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.001973503819863688</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.0001459323333670424</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.0005545754072504468</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1.368869038617631e-05</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.9973122997491327</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>RUG418</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.9873169002324301</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.00459448539926166</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.001303111677019831</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.005942287262169334</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.0008432154291189921</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.9873169002324301</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>RUG685</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.9971284658328513</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.001199823303247445</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.000246348791023728</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.0007306347560119536</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.0006947273168656879</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.9971284658328513</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>RUG759</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.997757416314887</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.0006614924545021209</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.0001577330064711988</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.001250140480504019</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.0001732177436357444</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.997757416314887</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>RUG691</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.9485883567143031</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.02179594645766808</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.003458119158655299</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.01775246735417252</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.008405110315200743</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.9485883567143031</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>RUG383</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.9779289429828087</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.01011352992831375</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.005771556111732141</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.005030162042330036</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.001155808934815444</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.9779289429828087</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>RUG056</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.999223132923449</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.0003409740705768787</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2.650066213787977e-05</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.0003976803498789501</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1.17119939573193e-05</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.999223132923449</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>RUG124</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.9965435601070948</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.001506790952446256</v>
+      </c>
+      <c r="D106" t="n">
+        <v>9.368602015550778e-05</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.001715857364950187</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.0001401055553532939</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.9965435601070948</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>RUG160</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.9881972864627266</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.004695266546147366</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.002155253298652076</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.004166318251852263</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.0007858754406217031</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.9881972864627266</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>RUG624</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.9841137731549657</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.01155692320351946</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.0002779355731503755</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.003685384999834193</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.0003659830685302032</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.9841137731549657</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>RUG209</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.9967442271308928</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.001880787810518684</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.0009185816860374003</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.0001669063790841796</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.0002894969934667266</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.9967442271308928</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>RUG812</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.9888078729641114</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.005762347368338397</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.0008278294780968403</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.004546183673416998</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5.576651603628413e-05</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.9888078729641114</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>RUG602</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.9987943177574816</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.0007021156381301449</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.0001202245030172632</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.0003187365247574604</v>
+      </c>
+      <c r="F111" t="n">
+        <v>6.460557661360752e-05</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.9987943177574816</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>RUG751</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.9186884904868525</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.03329367263196686</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.005298609728477554</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.03162354061089934</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.01109568654180379</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.9186884904868525</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>RUG101</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.9927830415527727</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.001483784817158407</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.0001909924732807442</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.005194691799107506</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.0003474893576805835</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.9927830415527727</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>RUG693</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.9858876907851134</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.003924193288148872</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.001081465976152621</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.005746801753836144</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.00335984819674888</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.9858876907851134</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>RUG749</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.9780919449356698</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.0109047168438018</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.001051265608800311</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.007557520102724325</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.002394552509004039</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.9780919449356698</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>RUG107</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.9548717365000069</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.01605992237471495</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.003275449826047469</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.02524106636262528</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.0005518249366053056</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.9548717365000069</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>RUG063</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.9778413438443141</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.006224603157566407</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.003442474196600717</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.008602360920628405</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.003889217880890351</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.9778413438443141</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>RUG178</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.9912216101521175</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.005538009575906665</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.0005339230595586259</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.002594676624889309</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.0001117805875279338</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.9912216101521175</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>RUG414</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.9941518487316117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.00203038599936876</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.001340143478777855</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.002146994257524505</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.0003306275327170148</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.9941518487316117</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>RUG058</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.9988916242966364</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.0004610357649786618</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2.938319984365301e-05</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.0005913935726295966</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2.656316591191472e-05</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.9988916242966364</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>RUG771</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.9780509337982723</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.007654284333213249</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.001819206538341222</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.007725044222914037</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.004750531107259216</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.9780509337982723</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>RUG837</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.9934041928735583</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.002565726572493208</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.0003793504244007839</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.002279972431655179</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.001370757697892426</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.9934041928735583</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>RUG657</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.9788790558812253</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.00168774940604103</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.007078826574915335</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.01113130982240087</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.001223058315417571</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.9788790558812253</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>RUG174</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.8350112956305735</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.03715171070186026</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.02542729917990526</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.07665983055156304</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.02574986393609803</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.8350112956305735</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>RUG355</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.9919809079419997</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.005611583729708629</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.0004984931099411736</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.001513365331054394</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.0003956498872961671</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.9919809079419997</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>RUG827</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.9987117701894876</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.0004244457614267005</v>
+      </c>
+      <c r="D126" t="n">
+        <v>6.756517920837483e-05</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.0007895358604959998</v>
+      </c>
+      <c r="F126" t="n">
+        <v>6.683009381164307e-06</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.9987117701894876</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>RUG795</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.954141441108721</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.01805565119813459</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.006394617650142274</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.01702834208721598</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.00437994795578636</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.954141441108721</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>RUG843</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0.9963425471022662</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.001916550697817868</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.0001847698763175954</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.001524695520407972</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3.143680319040648e-05</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.9963425471022662</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>RUG689</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.9066298092577981</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.02733307959770872</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.005342632578133328</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.05808084334240229</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.002613635223957611</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.9066298092577981</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>RUG126</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.9906995633093622</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.002680198061125407</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.001030738376737527</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.003413044866188717</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.002176455386586161</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.9906995633093622</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>RUG451</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.9987646255454941</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.0004738728143378023</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.0001472757875221604</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.0005879354082222744</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2.629044442372467e-05</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.9987646255454941</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>RUG536</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.8493536838968074</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.03721280792610124</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.02491271450065714</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.05969416353766707</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.02882663013876709</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.8493536838968074</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>RUG606</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.9321278419368868</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.04257658753806308</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.004150976740857615</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.01604842419218</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.005096169592012417</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.9321278419368868</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>RUG766</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.9889012714893826</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.003225004194168366</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.0009480632691871071</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.005862315497759717</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.001063345549502246</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.9889012714893826</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>RUG059</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.9886981931961976</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.00517546692916029</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.0003821535379015</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.005560839659265179</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.000183346677475612</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.9886981931961976</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>RUG753</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.9760895947458396</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.006922727042074538</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.002073781434670297</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.01412023416551572</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.0007936626118997042</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.9760895947458396</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>RUG744</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.9949568014538075</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.001566387710186351</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.0006645432310230534</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.0009368789410106858</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.001875388663972305</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.9949568014538075</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>RUG450</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.9857983624989263</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.0008981148868068903</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.004998517915501215</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.007669367242489925</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.0006356374562757794</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.9857983624989263</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>RUG071</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.975011022407432</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.0117270489612363</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.001276208022701361</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.01140603511053352</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.0005796854980967687</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.975011022407432</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>RUG295</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.967567545550712</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.01015200347526216</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.004037535802563452</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.01513259431014696</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.003110320861315317</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.967567545550712</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>RUG620</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.975156016554288</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.02085246978496545</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.0007599772562358512</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.001679050169711502</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.001552486234799309</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.975156016554288</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>RUG785</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.9958017110239957</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.002568293943674014</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.0001112648901772833</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.0009863120316110235</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.0005324181105419538</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.9958017110239957</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>hRUG879</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.8824851747949899</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.01623851534014907</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.01773496107888278</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.01421416505352934</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.06932718373244889</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.8824851747949899</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>RUG249</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.9972952376537835</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.0009008925860644887</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.0002486089152959767</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.001277230138586007</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.0002780307062699014</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.9972952376537835</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>RUG668</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.9933230636301181</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.001484742355725638</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.0001033571416981483</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.004761800500838283</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.000327036371619784</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.9933230636301181</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>RUG430</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.9990286863283098</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.0004990206340252756</v>
+      </c>
+      <c r="D146" t="n">
+        <v>6.501449970294016e-05</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.0003421202833931083</v>
+      </c>
+      <c r="F146" t="n">
+        <v>6.51582545689178e-05</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.9990286863283098</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>RUG424</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.9944766693967223</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.002808394993916318</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.0003652879125472706</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.001889173250056193</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.0004604744467578234</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.9944766693967223</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>RUG224</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.991183998647806</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.005219534949767621</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.0003333309609929676</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.001857691247191612</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.001405444194241771</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.991183998647806</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>RUG443</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.953277313469575</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.02629869124339454</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.005242067460520848</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.01108737310998992</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.004094554716519736</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.953277313469575</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>RUG136</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.9964180541047425</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.001424679133366653</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.0003436207240579558</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.001249203310226293</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.0005644427276064655</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.9964180541047425</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>RUG599</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.9800586892102031</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.01255063895058036</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.0006004711519399327</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.004682041302547736</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.002108159384728707</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.9800586892102031</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>hRUG913</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.965047105164583</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.01115820440696996</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.001874248992236176</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.01149871700101403</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.0104217244351968</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.965047105164583</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>RUG204</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0.9909032763858624</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.004732751483372384</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.0007446089486546319</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.002215618383891893</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.001403744798218524</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.9909032763858624</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>RUG786</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.982750733443827</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.009903198564160696</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.003314367263567958</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.003317982620361878</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.0007137181080824323</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.982750733443827</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>RUG533</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.9816850682828147</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.005102279705824858</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.001120046314670085</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.006040808266418176</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.006051797430272341</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.9816850682828147</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>RUG413</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.9959243532001139</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.00213262322096111</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.001125999911488415</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.0008108623428392135</v>
+      </c>
+      <c r="F156" t="n">
+        <v>6.161324597466203e-06</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.9959243532001139</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>RUG839</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.9878953919615252</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.003741537769476975</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.001337370393681752</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.006221350835830267</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.0008043490394858485</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.9878953919615252</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>RUG403</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.9743154500080127</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.008891557865606348</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.001328976956608906</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.01351630078504503</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.001947714384726989</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.9743154500080127</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>RUG137</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.9806991805887663</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.008207241463538515</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.0005337684877390436</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.01047363460107681</v>
+      </c>
+      <c r="F159" t="n">
+        <v>8.617485887916105e-05</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.9806991805887663</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>RUG504</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.9626206621988371</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.01110963219330065</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.00841950671460993</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.01084819074852487</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.007002008144727541</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.9626206621988371</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>RUG571</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0.9891064633502045</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.003343756627213277</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.001093790270220951</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.005515484891398087</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.0009405048609632527</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.9891064633502045</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>RUG317</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.9968287420705778</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.001715880956915072</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.0001473027151594011</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.001056893092416304</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.0002511811649314909</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.9968287420705778</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>RUG815</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.8374083593321916</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.03509485460293794</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.009779529449934514</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.1167475613881433</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.0009696952267926659</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.8374083593321916</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>RUG069</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0.9853453995352786</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.00790056694107723</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.002377505155899879</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.004228614831488132</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.0001479135362561664</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.9853453995352786</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>RUG073</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.9935658078079322</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.001886549249284922</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.001218591096328722</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.003151186784762989</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.0001778650616912321</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.9935658078079322</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -37199,7 +43001,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -38195,7 +43997,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -41783,7 +47585,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -43400,7 +49202,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -47906,7 +53708,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -49787,7 +55589,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -51073,7 +56875,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -55719,6 +61521,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/outputs/c__Bacteroidia.xlsx
+++ b/outputs/c__Bacteroidia.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="g__Prevotella-t" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="f__Atopobiaceae-t" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="f__Bacteroidaceae-t" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="f__Bacteroidaceae-t-p" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="c__Bacteroidia_pred-t" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -67,18 +68,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -3909,7 +3910,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -6000,7 +6001,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -30621,7 +30622,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -31266,7 +31267,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -35745,7 +35746,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -41546,7 +41547,5323 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G196"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>o__Chitinophagales</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>o__Cytophagales</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>o__Flavobacteriales</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>o__Sphingobacteriales</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG152</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.16793630806449</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.968156489395086</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-2.832533365463747</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1.418753870513808</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-3.507891155557931</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG419</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.318731092490198</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.299014764164262</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-4.213613420365135</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.735119758111347</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-5.155465107696123</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>hRUG908</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.303280750700595</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.635435855223821</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-3.706895036109312</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1.803793814677246</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-3.223117173085663</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG459</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.539884847866632</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.484470686809945</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-3.304829531800415</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1.82931015064395</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-4.063125377566253</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG577</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2.723458018021381</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.566073722637708</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-4.182019101901753</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1.485793128068573</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-4.822216332863469</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG431</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.477870400755515</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-3.200741768414807</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-4.036933575700625</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-3.000840044990962</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-3.175050701271995</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG446</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.772355559813606</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.845145834266024</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-4.845122179766093</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-2.151203671860878</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-7.189906945422466</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG318</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.639615030036007</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2.320113599050459</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-4.652754921242431</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-2.118563981865116</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-4.676616429839163</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG483</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.714084865669893</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.572891885723301</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-4.563226047951845</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1.88054946341894</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-3.790812772192227</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG326</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.628516194910719</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.549419145077732</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-4.76126908806781</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1.790317172776951</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-5.162681795772222</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>hRUG906</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.118069604674373</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-2.610463715451892</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-4.525083466688667</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-2.776519282363451</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-5.202284316451219</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.840786661333698</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1.639590327339523</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-3.782307097999423</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-2.216444717938391</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-3.483188001035111</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG339</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3.602051289869605</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.732006725137945</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-3.522357101018589</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-2.281768853845374</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-4.130431998143095</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG417</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4.164485297216503</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.88292852018697</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-4.370103282694417</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-2.909584387738651</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-4.634024889161997</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3.413720393355619</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-3.082864880802691</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-3.56650614149242</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-3.192939464629298</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-5.805760852290375</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3.11893131235375</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-2.879236233544746</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-3.044548955471543</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-2.205164857694209</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-3.535688601918001</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG500</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.099677528763258</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.002027714476676</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-4.935776087776337</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-1.996123716436626</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-4.167461192269461</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG273</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3.570331534813224</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-2.22696234290364</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-4.74174507620423</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-2.127539643929132</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-3.666307725925029</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG307</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3.44953877705181</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.925430712574164</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-5.078112761099487</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-1.379567414608613</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-4.585235252196906</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG397</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2.737292074672829</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.442608586006898</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-3.660436036142904</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-2.162604965034809</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-2.286235043525306</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG569</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2.065793747220653</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.409136153374632</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-2.892723312714654</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-2.595467688276286</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-1.956347325429804</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG474</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4.457837977994779</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.480917766133043</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-3.747287017780305</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-3.512356081583265</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-6.906600259618033</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>hRUG897</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2.095277623037843</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.665927022928454</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-3.044045238753891</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-1.152725547386269</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-4.133815999563493</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG323</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2.782375926448617</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.091409427997874</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-3.305273569476123</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-1.571399256393148</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-3.266409573975023</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG367</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3.378096553533522</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.250980374374344</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-3.961746827509666</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-1.937346998656341</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-3.385345200185513</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG538</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2.105010046761547</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.280490184137305</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-3.412565896003738</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-1.154866929005844</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-5.374772829298492</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG153</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>4.289176239758223</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.558152315235144</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-5.299505512640428</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-2.277425680250248</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-6.898625702310364</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG429</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>4.181124768262753</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.956534304750562</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-4.447639880480014</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-2.464037895679636</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-4.899853557526865</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG144</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3.594789304895676</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.969847770581781</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-4.531686560409296</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-1.75597594977356</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-3.091973223969532</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG423</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2.752171657727056</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-2.240684135129139</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-3.658672044988305</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-2.037781210508161</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-3.392287841205855</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG407</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2.057933833474442</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-2.542233927505847</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-2.737412222036503</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-1.699498983370335</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-4.339722481258899</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>hRUG858</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2.53081134791422</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-2.776969882267101</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-4.094351693774192</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-1.149067046603176</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-4.279847956025635</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG168</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>4.136042226978361</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-2.440025187649706</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-3.612181610770782</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-2.554244328157727</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-3.994718734726661</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG242</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>3.839797057034589</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-1.323903219790205</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-3.850302837651644</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-2.809353864504547</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-4.899352177028971</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG106</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2.394365540521024</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-1.685251452222915</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-3.817800528366819</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-2.12505495642857</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-5.76927345202117</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG259</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>3.271259912806384</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-2.073887642736242</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-3.686463293517626</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-2.716828632454332</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-3.238019905132496</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG739</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>3.179328473964819</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-2.103197706330767</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-3.287487366887325</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-1.870689713448022</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-2.368759826439121</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>3.077361191558181</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-2.293838224493953</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-3.958191933740761</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-3.08223277310797</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-3.468028530463264</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG488</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>4.550948562182599</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-2.704735452343793</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-3.746963818172857</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-3.442880057027711</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-2.64469856171763</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG085</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2.82582842281812</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-1.912517355060285</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-3.699447649576768</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-2.064259767846047</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-3.554272213006993</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>RUG156</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2.742271360730786</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-1.882665145718685</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-3.536760532235698</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-1.935914504517134</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-4.616426125482265</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RUG647</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3.518265435588237</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-2.968540455421832</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-4.379087607194093</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-1.462948527057277</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-5.206907786942402</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RUG733</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>3.436795601647864</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-1.509142172725678</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-4.718101441986936</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-2.630643923090796</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-4.028120535739351</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>RUG064</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>4.482814134897634</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-2.290502031238032</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-5.053584031182139</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-2.431446475792053</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-2.940038846819959</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG849</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1.941473548018453</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-1.368653370301587</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-3.304365966483509</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-1.584621667009862</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-4.442731732288008</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG216</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>4.088442514614091</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-2.810485948411788</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-3.888574141309127</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-1.666364745426059</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-6.818002207339481</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>hRUG893</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2.810545227653339</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-2.228118791704821</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-3.696433326539678</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-1.620841399816491</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-2.31250538632421</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG200</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>4.111044059427726</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-2.992348456294445</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-5.80661992833164</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-1.683039200786324</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-5.761480292981526</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG083</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1.360028191340573</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-2.461838899901568</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-2.40149524335054</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.9794994171426841</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-2.822079551533185</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RUG309</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>5.180206697158431</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-2.720851903959112</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-4.22488231194229</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-3.605896419554574</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-3.830269534289179</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG550</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>3.040580128299678</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-2.495379992508661</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-3.056195264031673</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-2.101175549942054</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-1.742878024875082</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG360</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3.368401979897667</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-1.572989442758374</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-3.624702112345012</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-1.917623180860712</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-5.92724498169556</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RUG782</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>3.695802548169871</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-2.574897164422321</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-3.960921326831528</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-2.28448659399395</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-2.034003569310189</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RUG003</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>4.49526944350804</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-2.359012387386835</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-4.2725142807708</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-2.182317905920202</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-3.513305591097842</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>4.100128901621505</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-3.218442813739525</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-3.339144732591328</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-3.130039652666201</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-5.206834899724596</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RUG535</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3.590098815641665</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-2.148969073629591</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-3.6345095588328</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-2.905939342369123</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-3.046468623446212</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RUG315</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>3.818391090482263</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-1.750518997047091</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-4.211377982429389</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-2.389290432132808</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-4.113929335561029</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>RUG392</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2.300793904089881</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-2.54674660261337</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-2.599146663940072</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-1.269856315254361</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-5.087731148201398</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>RUG108</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3.669215386023959</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-2.295427047423087</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-3.877706579421494</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-1.781198919773796</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-3.701131865840454</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>RUG541</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2.854329941886207</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-2.552609967683042</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-3.93445392839039</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-1.356028543218235</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-4.152832970143312</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>RUG461</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>3.859327360588769</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-2.653701624540992</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-3.131785420991123</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-3.66471788607723</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-3.825047903037853</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2.5902494653506</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-1.638421884451695</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-3.524653003212211</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-3.267147914927409</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-3.386536988872831</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>RUG250</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1.115369576422881</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-2.815756855432175</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-2.083562374209897</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-1.582414477308839</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-7.8971334783504</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>RUG546</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>3.542191554082355</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-2.652773085669301</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-3.803394158249724</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-2.41564748739328</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-5.062925567620831</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>RUG195</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>3.219290170779815</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-1.89028389490771</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-3.242897097870844</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-2.685350165929951</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-3.012185601887942</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>RUG660</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2.891239872122542</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-2.206846078884629</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-3.61488304406235</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-1.937808639384833</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-2.974590218338113</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>RUG734</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1.941661472339555</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-1.795014631370158</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-3.005305314828886</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-1.790663520483229</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-4.792600017267598</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>RUG061</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2.104841102827772</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-1.360252977913077</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-5.509938978497524</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0.5258101813241784</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-7.247447116307432</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>RUG280</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>5.059484805990822</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-2.765237666424428</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-4.339572463831399</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-2.587312106656515</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-4.909038050134722</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>3.15140820532172</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-2.855747202596187</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.7398497074654624</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-5.077700742263174</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-5.776774494708781</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1.034594423530474</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-2.966043269575338</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-3.048937057893732</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-1.767651402744066</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-5.360587520643159</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>RUG614</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1.247274674565867</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-1.689667001735817</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-2.713976661156784</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-1.764694042045125</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-3.597135589086931</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>3.521110116835019</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-2.604555436139636</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-2.625904742811829</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-3.242811378814807</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-5.820748261801208</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>3.384898671586647</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-3.818686290176264</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-2.379954703321317</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-3.821120808228115</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-4.709321465541271</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>RUG539</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>3.469704177740081</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-2.197696381092049</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-3.827915370728818</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-1.610586164212942</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-4.188855822741929</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>RUG676</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2.385421796217789</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-2.688136248532993</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-2.337455043701919</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-2.355696532311846</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-3.914080846017415</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>RUG742</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>4.351618151709464</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-2.399938522858275</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-5.325634742985242</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-1.90136347953951</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-6.021922434922579</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1.828311945313696</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-3.455877199130967</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-3.183763284442081</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-1.990437481715017</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-5.923224580436376</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>RUG197</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>3.960404731062309</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-2.039990707038551</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-4.41872701154832</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-2.378187285255079</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-6.06449099406867</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>RUG046</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2.544521751135125</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-1.579851059104516</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-3.066949176057923</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-1.890643445518407</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-2.077974373965374</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>RUG445</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>3.960347741655671</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-2.223068844238159</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-4.131783673929148</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-2.535411787826408</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-2.852718871968977</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>RUG435</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2.779966092235244</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-2.058160730413504</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-4.177319927045626</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-1.850737180678495</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-1.319744245008658</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>RUG828</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1.957127102088939</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-1.52926037562255</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-3.042385446157366</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-1.671687853213873</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-1.47751948432669</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>RUG172</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>3.741016740085954</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-2.556743924697752</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-4.627851916258174</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-2.063730955474778</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-3.236294676049265</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>RUG716</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1.93084494828754</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-1.827098412527138</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-2.538116595499982</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-1.886503047059965</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-2.667870101452769</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>RUG264</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2.540758717675323</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-1.464928587379553</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-3.827143797843077</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-2.349236979028025</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-6.302590170898796</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>RUG169</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>3.819405765178152</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-1.966712135157501</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-3.900413487007945</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-1.850238068636279</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-4.303843409784173</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>RUG030</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>3.414069119239925</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-3.089172138267711</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-3.653993696340022</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-2.224741775682303</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-3.527279036553633</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>RUG037</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>3.513015747577485</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-2.176187001291169</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-4.633431564163584</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-2.132814118652854</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-3.365998417721247</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>RUG184</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>3.852763860668612</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-2.822457948576674</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-5.818251088526444</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-0.8141887501763194</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-6.623252707512727</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>RUG711</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>3.157622375079315</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-1.770490245186761</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-3.350005000672625</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-2.508173683378629</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-3.788503131672783</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>RUG359</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2.999849320240961</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-1.677656578417945</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-3.755036936324843</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-1.482798848849086</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-3.321787574642683</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>RUG788</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1.555094426865</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-2.094195448873879</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-2.101065457091158</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-2.490354024283228</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-3.546049244175042</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>RUG210</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1.147761571959426</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-1.363437025850463</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-1.780968461650004</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-1.382821873997659</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-3.533648423468223</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>RUG176</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>3.58855504730666</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-2.422501730673487</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-5.476860671501807</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-1.1968281519223</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-4.559086765541895</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>RUG047</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>3.21255529991251</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-2.106037320357732</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-3.684469822713647</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-1.728873949066378</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-3.195949056027487</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>RUG310</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.8277436001860573</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-1.278137751554994</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-2.14771536082466</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-1.888230941784188</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-4.12527508051006</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>RUG405</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>3.174576183271681</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-1.762885401208435</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-3.834926307947438</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-1.810583760445071</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-3.768816549373445</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>hRUG883</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2.794143090837006</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-2.35617044416946</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-3.319619210914813</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-1.241353217710923</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-3.159827459920012</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>hRUG905</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>3.628048384595716</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-1.739487986800261</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-4.706882884239418</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-1.418108217070474</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-4.947045265168211</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>RUG192</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>4.898855899733561</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-2.4095698486555</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-7.581020348630493</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-0.6505917362117219</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-8.036887099963366</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>RUG465</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>3.594117630683426</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-2.439887250537098</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-3.451438912732626</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-2.345463572937022</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-2.326127061823963</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>RUG697</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>3.788147535566598</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-1.990840495954402</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-4.226604143621298</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-2.38442287514345</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-7.401366912089856</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>RUG325</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>2.604769147459821</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-1.730613156594174</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-4.465249010919212</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-1.690563588098273</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-4.322205021569502</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>RUG737</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>3.576835705785831</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-1.645177559481084</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-3.739557492125333</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-2.593458166661213</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-6.262618363683292</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>RUG562</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>4.318883482356604</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-2.337359050675951</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-3.535870360153763</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-2.91488973453274</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-6.851547042587643</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>RUG292</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>4.779165668718603</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-2.344520483979533</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-3.977472109756865</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-2.914710046052639</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-5.040921510354808</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>RUG377</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>4.026880734795544</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-1.790498244455284</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-5.137557870885753</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-2.243093320178001</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-7.104589639440553</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>RUG473</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>3.010982347207516</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-2.494745422969279</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-3.437479772309961</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-2.293841621773277</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-3.429503994224764</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>RUG699</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>3.563731343433413</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-3.423761189029587</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-4.200836309982997</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-1.559027791489284</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-6.832155585659684</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>RUG302</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>3.602774921081333</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-2.397308187386573</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-4.924503543680844</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-1.82766674028835</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-3.99708155499864</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>RUG233</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>4.527375981277006</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-1.769762030511101</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-3.717568474015735</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-3.784757752875864</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-6.333412585004391</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>RUG649</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>3.182017797067224</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-2.018224530306695</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-4.963476487404112</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-1.161448904213624</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-6.981391509179907</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>RUG329</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>4.348948387964851</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-2.786384860511575</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-4.081885656003559</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-2.153410317837799</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-5.547430253761663</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>RUG173</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.308517064391561</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-2.054511886127067</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-1.018464263377728</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-1.752310051669549</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-6.462763095842166</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>RUG219</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>3.409423031106109</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-1.815798967920316</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-4.411146338705271</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-2.030310063830132</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-2.937300218073053</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>3.341125739630484</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-3.357256187035381</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-2.556006097850462</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-3.110153658278593</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-5.733526197493513</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>RUG079</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>2.17189576357077</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-2.397681427754113</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-3.474035091197681</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-0.9973348084180351</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-5.926410335235407</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>RUG659</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>3.689177312806968</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-1.812863260360923</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-4.12893104983007</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-2.966255343319681</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-4.950901873918348</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>RUG469</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>2.930861243257157</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-3.258292224447951</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-3.144922567545227</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-1.516424916197839</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-5.201884677955069</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>RUG582</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>3.983550494852675</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-1.800129719821476</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-4.825914698508981</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-2.434516316589482</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-7.768530664255704</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>RUG418</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>3.185384465590416</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-2.050328727271221</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-3.474519138253152</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-2.720019715584573</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-3.618848001731557</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>RUG685</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>4.709330218336586</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-2.874978715485882</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-4.078874439559531</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-2.572718703878119</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-6.802432681983622</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>RUG279</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>3.931561674661161</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-1.59516162633148</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-5.929900929784949</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-1.068281493676364</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-6.184093656842848</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>RUG759</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>3.016469035532166</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-2.419346215040275</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-3.989119280466599</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-1.246735984613074</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-5.934369071723607</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>RUG691</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>2.632470133879984</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-2.019140130454071</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-3.622508512997567</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-1.995008009804066</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-2.479075153200691</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>RUG056</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>5.413133091949269</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-3.305437057930378</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-5.541651053554657</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-2.833824755007822</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-6.780220028328737</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>RUG124</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>3.944483744471504</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-1.917545398097445</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-4.880286388971065</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-2.26163769070198</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-4.489229324759372</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>RUG324</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1.320385806859639</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-2.162259396581408</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-1.752068178656666</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-2.066416839780473</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-3.206738794316784</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>RUG390</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>2.128658939612214</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-2.757226209201766</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-1.959893802360136</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-2.255164301237225</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-5.840962913650605</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>RUG160</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>3.346778758858546</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-2.4736696350595</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-2.880141891351449</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-2.346689003586147</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-2.572284920411161</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>RUG587</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>2.295453937010441</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-2.593648254366051</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-2.723279944361136</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-1.862636759552326</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-4.182258796167908</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>RUG624</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>2.187518071413705</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-1.031015547698163</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-3.184502407933745</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-2.803074583347951</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-2.667968263532308</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>2.363108099316318</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-1.501457974060935</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-3.543372350067497</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-2.563501855373166</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-2.972492289857501</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>RUG380</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2.820946206929721</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-2.818778569761058</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-3.189549967065239</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-1.405205290475316</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-4.399698715937236</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>RUG209</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>4.297024371675954</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-1.932022042580513</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-2.726748156378948</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-4.386684364552472</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-3.823853660781078</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>RUG812</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>2.993494695188285</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-1.476399563522574</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-3.680003994503647</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-2.167139812408222</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-5.137592975513311</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>RUG602</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>4.80027332086025</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-2.266441864638244</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-4.039979990767565</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-3.039387553513526</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-4.767576080960992</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>RUG101</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>2.536840966354743</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-2.298292381417109</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-3.382532612078087</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-1.713355577972419</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-2.746139938615448</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>RUG693</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>3.531571135564865</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-2.415078392642871</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-3.420203601634985</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-1.93802595983398</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-4.027312470377028</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>RUG749</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>3.050452062833403</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-1.617283881351257</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-3.768803215863011</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-2.188192136367802</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-3.038034163387163</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>RUG107</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>3.562383312518731</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-2.768140934708039</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-4.72341861808924</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-1.341501598204993</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-5.245420640239752</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>2.519161247843152</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-1.352907036781081</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-3.948451842061356</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-3.122025875337803</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-4.75556196562561</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>RUG245</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1.353834614346784</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-2.158304893623338</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-1.484375976018038</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-1.782340887760481</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-3.723152191594017</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>RUG164</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>3.337259622401731</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-2.829429374904637</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-3.597121701703377</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-1.736303149925359</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-4.482571119461338</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>RUG178</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>3.27219565904249</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-1.645457295578628</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-4.283855833543653</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-2.655679431022053</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-2.415497495207493</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>RUG414</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>4.370242657538586</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-2.376613523668359</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-3.179423664596156</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-3.698444118091698</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-3.777202581095401</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>RUG058</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>5.572483788444951</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-2.811394203543334</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-5.889783946523708</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-2.315427077663292</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-5.886835805085382</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>RUG771</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>3.734905397267994</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-2.604431053218433</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-3.807360850007458</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-2.365666166446191</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-3.242664248626526</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>RUG837</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>2.78536629636743</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-1.696519576689264</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-3.790886523713836</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-2.431492912914279</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-3.153888120067356</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>RUG827</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>5.060989411074534</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-2.746070035743976</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-4.149294903411922</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-3.092231862724582</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-7.089539177245199</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>2.242703636321695</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-3.315162856437963</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-3.325983400347683</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-1.475107386130981</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-4.606205309001868</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>RUG843</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>4.802836650370645</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-2.500517989181635</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-3.510149926820246</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-3.631543080325995</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-6.415807018213464</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>RUG689</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1.291099879371358</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-1.67678128854803</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-3.769835871174669</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-0.9020045975316808</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-3.551571388718624</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>RUG165</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>4.407098718888202</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-0.8214600570405503</v>
+      </c>
+      <c r="D156" t="n">
+        <v>-5.200488149336708</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-2.246145612695249</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-6.449516968484977</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>RUG451</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>4.810275187652385</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-2.545652244561272</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-4.164342599313363</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-2.698856558768102</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-6.115949189327694</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>RUG536</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.9206818233872135</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-1.086002117844541</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-2.176588045888541</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-1.903708725857864</v>
+      </c>
+      <c r="F158" t="n">
+        <v>-3.930301915033541</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>3.355917639312714</v>
+      </c>
+      <c r="C159" t="n">
+        <v>-2.620359333165735</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-2.861245475516145</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-3.244966660863462</v>
+      </c>
+      <c r="F159" t="n">
+        <v>-3.469578838525041</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>RUG606</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>2.186944413544271</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-0.9222977805869382</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-3.459629913331295</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-2.157097388712668</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-2.974950968919805</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>RUG766</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>2.888025370400447</v>
+      </c>
+      <c r="C161" t="n">
+        <v>-2.188326124582375</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-3.479065110101707</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-2.151497525907172</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-2.136264738999667</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>RUG059</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>4.026420064047135</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-2.299940612438056</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-4.084408742968858</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-1.805173161793205</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-5.21089326737742</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>RUG358</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>2.200755335418659</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-2.973223664275955</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-3.375267413350432</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-1.733308839921233</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-4.246383240690989</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>RUG753</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>3.586379211907915</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-2.760447682100595</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-3.836926599285014</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-1.774239109881543</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-4.636834058728448</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>RUG348</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>3.075267675393752</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-1.479714782004856</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-3.522999705688554</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-1.643232780987258</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-2.848866261502088</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>RUG312</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1.118938693620169</v>
+      </c>
+      <c r="C166" t="n">
+        <v>-1.899968082923043</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-2.901534220721088</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-0.4845774595510557</v>
+      </c>
+      <c r="F166" t="n">
+        <v>-4.561584398917922</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>RUG071</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>2.985037581772968</v>
+      </c>
+      <c r="C167" t="n">
+        <v>-1.20386096973001</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-3.258660693240473</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-2.060190753464142</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-2.991525084961885</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>RUG620</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>2.901700268674896</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-1.130626306699034</v>
+      </c>
+      <c r="D168" t="n">
+        <v>-3.504732266071152</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-2.996527422323982</v>
+      </c>
+      <c r="F168" t="n">
+        <v>-2.413648527655597</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>RUG265</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>2.051501689139655</v>
+      </c>
+      <c r="C169" t="n">
+        <v>-2.313722302764216</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-2.466479850450689</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-1.619181075535909</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-4.400814588011508</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>RUG785</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>3.372717652202649</v>
+      </c>
+      <c r="C170" t="n">
+        <v>-1.696316373118935</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-4.927934772769183</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-1.917090317064325</v>
+      </c>
+      <c r="F170" t="n">
+        <v>-2.649399161815065</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>RUG249</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>3.732899607108822</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-2.519296498381443</v>
+      </c>
+      <c r="D171" t="n">
+        <v>-3.383277163114239</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-1.909669116462599</v>
+      </c>
+      <c r="F171" t="n">
+        <v>-4.052852317721016</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>RUG668</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>3.714234457857103</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-2.565450346635072</v>
+      </c>
+      <c r="D172" t="n">
+        <v>-4.947343243251784</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-1.337411366247688</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-3.917791840103868</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <t>RUG430</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>4.647244438178424</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-1.649128991896039</v>
+      </c>
+      <c r="D173" t="n">
+        <v>-4.340071431857005</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-2.466466924426429</v>
+      </c>
+      <c r="F173" t="n">
+        <v>-3.230076756389316</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>RUG424</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>3.648624387620933</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-3.229503180811617</v>
+      </c>
+      <c r="D174" t="n">
+        <v>-3.967993340113024</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-3.015553167952422</v>
+      </c>
+      <c r="F174" t="n">
+        <v>-3.755478146336769</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <t>RUG224</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>3.397545867016489</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-1.631357911139489</v>
+      </c>
+      <c r="D175" t="n">
+        <v>-4.243139192585256</v>
+      </c>
+      <c r="E175" t="n">
+        <v>-2.911713233969389</v>
+      </c>
+      <c r="F175" t="n">
+        <v>-3.713378951203079</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>RUG443</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>2.632513330688961</v>
+      </c>
+      <c r="C176" t="n">
+        <v>-1.838930443085616</v>
+      </c>
+      <c r="D176" t="n">
+        <v>-3.831767019402566</v>
+      </c>
+      <c r="E176" t="n">
+        <v>-2.610423578436254</v>
+      </c>
+      <c r="F176" t="n">
+        <v>-2.293878571764681</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>RUG134</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>3.605332701107362</v>
+      </c>
+      <c r="C177" t="n">
+        <v>-1.793741856366929</v>
+      </c>
+      <c r="D177" t="n">
+        <v>-4.973590591071916</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-2.741571619065543</v>
+      </c>
+      <c r="F177" t="n">
+        <v>-6.503434517687718</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>2.653577109789974</v>
+      </c>
+      <c r="C178" t="n">
+        <v>-1.51363473697616</v>
+      </c>
+      <c r="D178" t="n">
+        <v>-3.53077865963863</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-1.906360595793627</v>
+      </c>
+      <c r="F178" t="n">
+        <v>-3.177767643892247</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>RUG136</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>3.522623559687468</v>
+      </c>
+      <c r="C179" t="n">
+        <v>-2.328049041576935</v>
+      </c>
+      <c r="D179" t="n">
+        <v>-4.21543394466709</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-2.023411715322196</v>
+      </c>
+      <c r="F179" t="n">
+        <v>-3.566614146148039</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>RUG599</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>3.597816386555551</v>
+      </c>
+      <c r="C180" t="n">
+        <v>-1.284255510445294</v>
+      </c>
+      <c r="D180" t="n">
+        <v>-4.054284197871683</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-2.683541108062704</v>
+      </c>
+      <c r="F180" t="n">
+        <v>-2.833653531405886</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>hRUG913</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>3.173335166226343</v>
+      </c>
+      <c r="C181" t="n">
+        <v>-2.252227279949138</v>
+      </c>
+      <c r="D181" t="n">
+        <v>-3.189254557047257</v>
+      </c>
+      <c r="E181" t="n">
+        <v>-2.989533830083027</v>
+      </c>
+      <c r="F181" t="n">
+        <v>-2.255492098658548</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>3.049440218574897</v>
+      </c>
+      <c r="C182" t="n">
+        <v>-2.046809250037317</v>
+      </c>
+      <c r="D182" t="n">
+        <v>-3.61117997245272</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-3.411333959249871</v>
+      </c>
+      <c r="F182" t="n">
+        <v>-5.08951399826346</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>RUG204</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>3.700251096994998</v>
+      </c>
+      <c r="C183" t="n">
+        <v>-1.145236739289623</v>
+      </c>
+      <c r="D183" t="n">
+        <v>-4.214997701018996</v>
+      </c>
+      <c r="E183" t="n">
+        <v>-2.806621532462254</v>
+      </c>
+      <c r="F183" t="n">
+        <v>-3.66445054389401</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>RUG533</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>3.403807872228373</v>
+      </c>
+      <c r="C184" t="n">
+        <v>-1.985507044551626</v>
+      </c>
+      <c r="D184" t="n">
+        <v>-3.813454106245776</v>
+      </c>
+      <c r="E184" t="n">
+        <v>-2.463226020294111</v>
+      </c>
+      <c r="F184" t="n">
+        <v>-2.891432138204052</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>RUG182</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1.940056894624265</v>
+      </c>
+      <c r="C185" t="n">
+        <v>-2.161782370738508</v>
+      </c>
+      <c r="D185" t="n">
+        <v>-2.834484560440412</v>
+      </c>
+      <c r="E185" t="n">
+        <v>-1.318394378148385</v>
+      </c>
+      <c r="F185" t="n">
+        <v>-4.480864019181806</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>RUG413</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>4.238174041738363</v>
+      </c>
+      <c r="C186" t="n">
+        <v>-1.868804988076786</v>
+      </c>
+      <c r="D186" t="n">
+        <v>-3.362218801727809</v>
+      </c>
+      <c r="E186" t="n">
+        <v>-3.474650124494715</v>
+      </c>
+      <c r="F186" t="n">
+        <v>-8.426339927777139</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>RUG839</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>4.338302407670353</v>
+      </c>
+      <c r="C187" t="n">
+        <v>-2.791634437384432</v>
+      </c>
+      <c r="D187" t="n">
+        <v>-4.26065670787508</v>
+      </c>
+      <c r="E187" t="n">
+        <v>-2.300723932460189</v>
+      </c>
+      <c r="F187" t="n">
+        <v>-5.341213819002977</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>RUG403</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>2.803858255118679</v>
+      </c>
+      <c r="C188" t="n">
+        <v>-2.031397219042447</v>
+      </c>
+      <c r="D188" t="n">
+        <v>-3.513357255091661</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-1.6975891657921</v>
+      </c>
+      <c r="F188" t="n">
+        <v>-3.839284083222822</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>RUG137</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>2.838378334097372</v>
+      </c>
+      <c r="C189" t="n">
+        <v>-2.528158227772352</v>
+      </c>
+      <c r="D189" t="n">
+        <v>-5.297053648413468</v>
+      </c>
+      <c r="E189" t="n">
+        <v>-0.9254310773587306</v>
+      </c>
+      <c r="F189" t="n">
+        <v>-6.938525674803894</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>RUG415</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>3.794876470755178</v>
+      </c>
+      <c r="C190" t="n">
+        <v>-2.44621640512659</v>
+      </c>
+      <c r="D190" t="n">
+        <v>-3.503752181439091</v>
+      </c>
+      <c r="E190" t="n">
+        <v>-1.952841191447196</v>
+      </c>
+      <c r="F190" t="n">
+        <v>-4.95904267845004</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>RUG571</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>3.266556672604357</v>
+      </c>
+      <c r="C191" t="n">
+        <v>-2.337568568916132</v>
+      </c>
+      <c r="D191" t="n">
+        <v>-3.901214784530088</v>
+      </c>
+      <c r="E191" t="n">
+        <v>-2.439976971338061</v>
+      </c>
+      <c r="F191" t="n">
+        <v>-3.854116033829957</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>RUG317</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>4.269896504234124</v>
+      </c>
+      <c r="C192" t="n">
+        <v>-2.142998243775137</v>
+      </c>
+      <c r="D192" t="n">
+        <v>-4.353076769691404</v>
+      </c>
+      <c r="E192" t="n">
+        <v>-2.432344092345065</v>
+      </c>
+      <c r="F192" t="n">
+        <v>-4.063202641256075</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>RUG815</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>1.76811749566537</v>
+      </c>
+      <c r="C193" t="n">
+        <v>-1.890904474384903</v>
+      </c>
+      <c r="D193" t="n">
+        <v>-3.04877846633581</v>
+      </c>
+      <c r="E193" t="n">
+        <v>-1.43894655449436</v>
+      </c>
+      <c r="F193" t="n">
+        <v>-4.083156100107535</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>RUG069</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>1.822343796602853</v>
+      </c>
+      <c r="C194" t="n">
+        <v>-1.828923669676974</v>
+      </c>
+      <c r="D194" t="n">
+        <v>-2.479178695522463</v>
+      </c>
+      <c r="E194" t="n">
+        <v>-2.220249304271288</v>
+      </c>
+      <c r="F194" t="n">
+        <v>-1.536034380458578</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>RUG073</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>2.641445740273563</v>
+      </c>
+      <c r="C195" t="n">
+        <v>-2.748866651131767</v>
+      </c>
+      <c r="D195" t="n">
+        <v>-3.220252288691772</v>
+      </c>
+      <c r="E195" t="n">
+        <v>-1.970681778942886</v>
+      </c>
+      <c r="F195" t="n">
+        <v>-5.894750308996449</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>RUG544</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1.020195551622126</v>
+      </c>
+      <c r="C196" t="n">
+        <v>-0.8523677035274397</v>
+      </c>
+      <c r="D196" t="n">
+        <v>-3.272404486411931</v>
+      </c>
+      <c r="E196" t="n">
+        <v>-1.428104221599242</v>
+      </c>
+      <c r="F196" t="n">
+        <v>-4.760079198126652</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>o__Bacteroidales</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -43001,7 +48318,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -43997,7 +49314,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -47585,7 +52902,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -49202,7 +54519,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -53708,7 +59025,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -55589,7 +60906,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -56875,7 +62192,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -61521,6 +66838,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>